--- a/examples/MSEL.xlsx
+++ b/examples/MSEL.xlsx
@@ -95,7 +95,7 @@
 Ignore messages from emails with the address @notanemail.net</t>
   </si>
   <si>
-    <t xml:space="preserve">https://foreseeti.com/wp-content/uploads/2021/09/Ska%CC%88rmavbild-2021-09-02-kl.-15.44.24.png</t>
+    <t xml:space="preserve">https://sdn.signalhire.co/storage/company/67a2/3012/f549/4d22/ce41/5f01/f4b4/820e.webp</t>
   </si>
   <si>
     <t xml:space="preserve">Data Governance</t>
@@ -605,10 +605,10 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+      <selection pane="topLeft" activeCell="J3" activeCellId="0" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.16"/>
